--- a/MainTop/08.01.20025/макс мес с 08.12.2024 по 08.01.2025/спрос_8-1-2025 макс мес с 8-12-2024 по 8-1-2025_sorted.xlsx
+++ b/MainTop/08.01.20025/макс мес с 08.12.2024 по 08.01.2025/спрос_8-1-2025 макс мес с 8-12-2024 по 8-1-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\08.01.20025\макс мес с 08.12.2024 по 08.01.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAAD49D-ED50-40D7-A347-026D20E2B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B175EF-06E2-4BA0-B87F-7CBC4EEB8E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -634,8 +634,12 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>F2/2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -660,8 +664,12 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I53" si="0">F3/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -686,8 +694,12 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -712,8 +724,12 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -738,8 +754,12 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -764,8 +784,12 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -790,8 +814,12 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -816,8 +844,12 @@
       <c r="H9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -842,8 +874,12 @@
       <c r="H10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -868,8 +904,12 @@
       <c r="H11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -894,8 +934,12 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -920,8 +964,12 @@
       <c r="H13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -946,8 +994,12 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -972,8 +1024,12 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -998,8 +1054,12 @@
       <c r="H16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1024,8 +1084,12 @@
       <c r="H17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1050,8 +1114,12 @@
       <c r="H18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1076,8 +1144,12 @@
       <c r="H19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1102,8 +1174,12 @@
       <c r="H20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1128,8 +1204,12 @@
       <c r="H21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1154,8 +1234,12 @@
       <c r="H22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1180,8 +1264,12 @@
       <c r="H23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1206,8 +1294,12 @@
       <c r="H24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1232,8 +1324,12 @@
       <c r="H25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1258,8 +1354,12 @@
       <c r="H26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1284,8 +1384,12 @@
       <c r="H27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1310,8 +1414,12 @@
       <c r="H28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1336,8 +1444,12 @@
       <c r="H29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1362,8 +1474,12 @@
       <c r="H30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1388,8 +1504,12 @@
       <c r="H31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1414,8 +1534,12 @@
       <c r="H32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1440,8 +1564,12 @@
       <c r="H33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1466,8 +1594,12 @@
       <c r="H34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1492,8 +1624,12 @@
       <c r="H35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1518,8 +1654,12 @@
       <c r="H36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1544,8 +1684,12 @@
       <c r="H37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1570,8 +1714,12 @@
       <c r="H38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1596,8 +1744,12 @@
       <c r="H39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1622,8 +1774,12 @@
       <c r="H40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1648,8 +1804,12 @@
       <c r="H41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1674,8 +1834,12 @@
       <c r="H42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1700,8 +1864,12 @@
       <c r="H43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1726,8 +1894,12 @@
       <c r="H44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1752,8 +1924,12 @@
       <c r="H45" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1778,8 +1954,12 @@
       <c r="H46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1804,8 +1984,12 @@
       <c r="H47" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1830,8 +2014,12 @@
       <c r="H48" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1856,8 +2044,12 @@
       <c r="H49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -1882,8 +2074,12 @@
       <c r="H50" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1908,8 +2104,12 @@
       <c r="H51" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1934,8 +2134,12 @@
       <c r="H52" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1959,6 +2163,10 @@
       </c>
       <c r="H53" t="s">
         <v>61</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
